--- a/results/Results.xlsx
+++ b/results/Results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BlackHat\Desktop\2023_Quantinuum\team_solutions\Espada\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/34132c81d787bbf5/Documents/GitHub/2023_Quantinuum/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FE4C216-9BE1-4317-9923-5DA3A95F9DA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="13_ncr:1_{4FE4C216-9BE1-4317-9923-5DA3A95F9DA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{61C14E5A-581C-4F72-922F-FA830A6CD120}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{7DAF2032-8B19-4B15-9565-57928A4A0111}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" xr2:uid="{7DAF2032-8B19-4B15-9565-57928A4A0111}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="14">
   <si>
     <t>Nelder-Mead</t>
   </si>
@@ -461,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBE43B09-8ADF-4714-B3C0-BF81D970A765}">
-  <dimension ref="B2:H39"/>
+  <dimension ref="B2:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -897,6 +897,137 @@
         <v>0.45</v>
       </c>
     </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B41" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" s="1">
+        <v>1</v>
+      </c>
+      <c r="D41" s="1">
+        <v>2</v>
+      </c>
+      <c r="E41" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B42" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C42" s="1">
+        <v>5000</v>
+      </c>
+      <c r="D42" s="1">
+        <v>5000</v>
+      </c>
+      <c r="E42" s="1">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B43" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="1">
+        <v>100</v>
+      </c>
+      <c r="D43" s="1">
+        <v>100</v>
+      </c>
+      <c r="E43" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B44" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44" s="1">
+        <v>12345</v>
+      </c>
+      <c r="D44" s="1">
+        <v>12345</v>
+      </c>
+      <c r="E44" s="1">
+        <v>12345</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B45" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" s="1">
+        <v>7</v>
+      </c>
+      <c r="D45" s="1">
+        <v>7</v>
+      </c>
+      <c r="E45" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B46" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="1">
+        <v>6</v>
+      </c>
+      <c r="D46" s="1">
+        <v>6</v>
+      </c>
+      <c r="E46" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B48" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" s="1">
+        <v>46</v>
+      </c>
+      <c r="D48" s="1">
+        <v>46</v>
+      </c>
+      <c r="E48" s="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B49" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" s="1">
+        <v>5.01</v>
+      </c>
+      <c r="D49" s="1">
+        <v>5.01</v>
+      </c>
+      <c r="E49" s="1">
+        <v>5.01</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B50" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50" s="4">
+        <v>0.37</v>
+      </c>
+      <c r="D50" s="4">
+        <v>0.37</v>
+      </c>
+      <c r="E50" s="4">
+        <v>0.37</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="C3:E3"/>
